--- a/เช็คชื่อ/[2021-07-10] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-10] เอกสารเช็คชื่อ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B81E01A-46AB-430C-882E-3DF154E293F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A1B183-0A96-4EF1-8B3F-19E1A46C10EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6510" yWindow="3015" windowWidth="14400" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="30">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>เป้าหมายทีม</t>
+  </si>
+  <si>
+    <t>แก้ UI</t>
+  </si>
+  <si>
+    <t>คนที่สะดวก</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2403,6 +2409,153 @@
         <v>1</v>
       </c>
     </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44387</v>
+      </c>
+      <c r="B139" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="E140" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>8</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>9</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>10</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="10">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>11</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/เช็คชื่อ/[2021-07-10] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-10] เอกสารเช็คชื่อ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A1B183-0A96-4EF1-8B3F-19E1A46C10EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D18CE2-00EA-4676-809F-2C0372C1DC74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="31">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>คนที่สะดวก</t>
+  </si>
+  <si>
+    <t>activity &amp; uc des</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2556,6 +2559,178 @@
         <v>1</v>
       </c>
     </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B151" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0.78680555555555554</v>
+      </c>
+      <c r="E152" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="E153" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="E154" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="10">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0.78680555555555554</v>
+      </c>
+      <c r="E158" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>8</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="10">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>9</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="D160" s="10"/>
+      <c r="E160" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>10</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="10">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>11</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
